--- a/static/Automated Data/Demand.xlsx
+++ b/static/Automated Data/Demand.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahgua\Documents\Website-visual\static\Automated Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0A4345-29B0-4757-8201-79BAFC676368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="3075" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -195,13 +201,52 @@
   </si>
   <si>
     <t>15 + 3 EDO</t>
+  </si>
+  <si>
+    <t>PPT 2 (Sect 1)</t>
+  </si>
+  <si>
+    <t>PPT 2 (Sect 2)</t>
+  </si>
+  <si>
+    <t>21 + 1 Training</t>
+  </si>
+  <si>
+    <t>52/55</t>
+  </si>
+  <si>
+    <t>22/23</t>
+  </si>
+  <si>
+    <t>13/14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13/14 </t>
+  </si>
+  <si>
+    <t>58/59</t>
+  </si>
+  <si>
+    <t>53/56</t>
+  </si>
+  <si>
+    <t>17/19</t>
+  </si>
+  <si>
+    <t>18 + 4 EDOs</t>
+  </si>
+  <si>
+    <t>45 + 1 Samsung Trg / 46</t>
+  </si>
+  <si>
+    <t>10 + 1 Doosan Trg / 11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +265,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -243,12 +296,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -267,8 +321,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1842022A-CE0D-4A08-AE81-F7CEC1B84D3F}" name="Table1" displayName="Table1" ref="A1:H110" totalsRowShown="0">
-  <autoFilter ref="A1:H110" xr:uid="{1842022A-CE0D-4A08-AE81-F7CEC1B84D3F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1842022A-CE0D-4A08-AE81-F7CEC1B84D3F}" name="Table1" displayName="Table1" ref="A1:H151" totalsRowShown="0">
+  <autoFilter ref="A1:H151" xr:uid="{1842022A-CE0D-4A08-AE81-F7CEC1B84D3F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H13">
     <sortCondition ref="A1:A13"/>
   </sortState>
@@ -603,24 +657,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.86328125" customWidth="1"/>
+    <col min="2" max="2" width="18.86328125" customWidth="1"/>
+    <col min="3" max="3" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.73046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -646,7 +700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>45901</v>
       </c>
@@ -672,7 +726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>45901</v>
       </c>
@@ -698,7 +752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>45901</v>
       </c>
@@ -724,7 +778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>45901</v>
       </c>
@@ -750,7 +804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>45901</v>
       </c>
@@ -776,7 +830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>45901</v>
       </c>
@@ -802,7 +856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>45901</v>
       </c>
@@ -828,7 +882,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>45901</v>
       </c>
@@ -854,7 +908,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>45901</v>
       </c>
@@ -880,7 +934,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>45901</v>
       </c>
@@ -906,7 +960,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>45901</v>
       </c>
@@ -932,7 +986,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>45901</v>
       </c>
@@ -958,7 +1012,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>45902</v>
       </c>
@@ -984,7 +1038,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>45902</v>
       </c>
@@ -1010,7 +1064,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>45902</v>
       </c>
@@ -1036,7 +1090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>45902</v>
       </c>
@@ -1062,7 +1116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>45902</v>
       </c>
@@ -1088,7 +1142,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>45902</v>
       </c>
@@ -1114,7 +1168,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>45902</v>
       </c>
@@ -1140,7 +1194,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>45902</v>
       </c>
@@ -1166,7 +1220,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>45902</v>
       </c>
@@ -1192,7 +1246,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>45902</v>
       </c>
@@ -1218,7 +1272,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>45902</v>
       </c>
@@ -1244,7 +1298,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>45902</v>
       </c>
@@ -1270,7 +1324,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>45903</v>
       </c>
@@ -1296,7 +1350,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>45903</v>
       </c>
@@ -1322,7 +1376,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>45903</v>
       </c>
@@ -1348,7 +1402,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>45903</v>
       </c>
@@ -1374,7 +1428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>45903</v>
       </c>
@@ -1400,7 +1454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>45903</v>
       </c>
@@ -1426,7 +1480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>45903</v>
       </c>
@@ -1452,7 +1506,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>45903</v>
       </c>
@@ -1478,7 +1532,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>45903</v>
       </c>
@@ -1504,7 +1558,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>45903</v>
       </c>
@@ -1530,7 +1584,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>45903</v>
       </c>
@@ -1556,7 +1610,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>45903</v>
       </c>
@@ -1582,7 +1636,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>45904</v>
       </c>
@@ -1608,7 +1662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>45904</v>
       </c>
@@ -1634,7 +1688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>45904</v>
       </c>
@@ -1660,7 +1714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>45904</v>
       </c>
@@ -1686,7 +1740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>45904</v>
       </c>
@@ -1712,7 +1766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>45904</v>
       </c>
@@ -1738,7 +1792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>45904</v>
       </c>
@@ -1764,7 +1818,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>45904</v>
       </c>
@@ -1790,7 +1844,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>45904</v>
       </c>
@@ -1816,7 +1870,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>45904</v>
       </c>
@@ -1842,7 +1896,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>45904</v>
       </c>
@@ -1868,7 +1922,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>45904</v>
       </c>
@@ -1894,7 +1948,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>45905</v>
       </c>
@@ -1920,7 +1974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>45905</v>
       </c>
@@ -1946,7 +2000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>45905</v>
       </c>
@@ -1972,7 +2026,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>45905</v>
       </c>
@@ -1998,7 +2052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>45905</v>
       </c>
@@ -2024,7 +2078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>45905</v>
       </c>
@@ -2050,7 +2104,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>45905</v>
       </c>
@@ -2076,7 +2130,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>45905</v>
       </c>
@@ -2102,7 +2156,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>45905</v>
       </c>
@@ -2128,7 +2182,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>45905</v>
       </c>
@@ -2154,7 +2208,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>45905</v>
       </c>
@@ -2180,7 +2234,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>45905</v>
       </c>
@@ -2206,7 +2260,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>45906</v>
       </c>
@@ -2232,7 +2286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>45906</v>
       </c>
@@ -2258,7 +2312,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>45906</v>
       </c>
@@ -2284,7 +2338,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>45906</v>
       </c>
@@ -2310,7 +2364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>45906</v>
       </c>
@@ -2336,7 +2390,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>45906</v>
       </c>
@@ -2362,7 +2416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>45906</v>
       </c>
@@ -2388,7 +2442,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
         <v>45906</v>
       </c>
@@ -2414,7 +2468,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
         <v>45906</v>
       </c>
@@ -2440,7 +2494,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>45906</v>
       </c>
@@ -2466,7 +2520,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>45906</v>
       </c>
@@ -2492,7 +2546,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>45906</v>
       </c>
@@ -2518,7 +2572,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
         <v>45907</v>
       </c>
@@ -2544,7 +2598,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
         <v>45907</v>
       </c>
@@ -2570,7 +2624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>45907</v>
       </c>
@@ -2596,7 +2650,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
         <v>45907</v>
       </c>
@@ -2622,7 +2676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
         <v>45907</v>
       </c>
@@ -2648,7 +2702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
         <v>45907</v>
       </c>
@@ -2674,7 +2728,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
         <v>45907</v>
       </c>
@@ -2700,7 +2754,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
         <v>45907</v>
       </c>
@@ -2726,7 +2780,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
         <v>45907</v>
       </c>
@@ -2752,7 +2806,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
         <v>45907</v>
       </c>
@@ -2778,7 +2832,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
         <v>45907</v>
       </c>
@@ -2804,7 +2858,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
         <v>45907</v>
       </c>
@@ -2830,7 +2884,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
         <v>45908</v>
       </c>
@@ -2856,7 +2910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
         <v>45908</v>
       </c>
@@ -2882,7 +2936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
         <v>45908</v>
       </c>
@@ -2908,7 +2962,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
         <v>45908</v>
       </c>
@@ -2934,7 +2988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
         <v>45908</v>
       </c>
@@ -2960,7 +3014,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
         <v>45908</v>
       </c>
@@ -2986,7 +3040,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
         <v>45908</v>
       </c>
@@ -3012,7 +3066,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
         <v>45908</v>
       </c>
@@ -3038,7 +3092,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
         <v>45908</v>
       </c>
@@ -3064,7 +3118,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
         <v>45908</v>
       </c>
@@ -3090,7 +3144,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
         <v>45908</v>
       </c>
@@ -3116,7 +3170,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A97" s="1">
         <v>45908</v>
       </c>
@@ -3142,7 +3196,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
         <v>45909</v>
       </c>
@@ -3168,7 +3222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
         <v>45909</v>
       </c>
@@ -3194,7 +3248,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A100" s="1">
         <v>45909</v>
       </c>
@@ -3220,7 +3274,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
         <v>45909</v>
       </c>
@@ -3246,7 +3300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A102" s="1">
         <v>45909</v>
       </c>
@@ -3272,7 +3326,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A103" s="1">
         <v>45909</v>
       </c>
@@ -3298,7 +3352,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
         <v>45909</v>
       </c>
@@ -3324,7 +3378,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A105" s="1">
         <v>45909</v>
       </c>
@@ -3350,7 +3404,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A106" s="1">
         <v>45909</v>
       </c>
@@ -3376,7 +3430,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A107" s="1">
         <v>45909</v>
       </c>
@@ -3402,7 +3456,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A108" s="1">
         <v>45909</v>
       </c>
@@ -3428,7 +3482,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A109" s="1">
         <v>45909</v>
       </c>
@@ -3452,6 +3506,1098 @@
       </c>
       <c r="H109" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A110" s="1">
+        <v>46020</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" s="5">
+        <v>14</v>
+      </c>
+      <c r="E110" s="5">
+        <v>14</v>
+      </c>
+      <c r="F110" s="5">
+        <v>14</v>
+      </c>
+      <c r="G110" s="5">
+        <v>14</v>
+      </c>
+      <c r="H110" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A111" s="1">
+        <v>46020</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" s="5">
+        <v>11</v>
+      </c>
+      <c r="E111" s="5">
+        <v>11</v>
+      </c>
+      <c r="F111" s="5">
+        <v>11</v>
+      </c>
+      <c r="G111" s="5">
+        <v>11</v>
+      </c>
+      <c r="H111" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A112" s="1">
+        <v>46020</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D112" s="5">
+        <v>48</v>
+      </c>
+      <c r="E112" s="5">
+        <v>48</v>
+      </c>
+      <c r="F112" s="5">
+        <v>59</v>
+      </c>
+      <c r="G112" s="5">
+        <v>46</v>
+      </c>
+      <c r="H112" s="5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A113" s="1">
+        <v>46020</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D113" s="5">
+        <v>11</v>
+      </c>
+      <c r="E113" s="5">
+        <v>11</v>
+      </c>
+      <c r="F113" s="5">
+        <v>59</v>
+      </c>
+      <c r="G113" s="5">
+        <v>11</v>
+      </c>
+      <c r="H113" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A114" s="1">
+        <v>46020</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" s="5">
+        <v>54</v>
+      </c>
+      <c r="E114" s="5">
+        <v>54</v>
+      </c>
+      <c r="F114" s="5">
+        <v>54</v>
+      </c>
+      <c r="G114" s="5">
+        <v>51</v>
+      </c>
+      <c r="H114" s="5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A115" s="1">
+        <v>46020</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D115" s="5">
+        <v>22</v>
+      </c>
+      <c r="E115" s="5">
+        <v>22</v>
+      </c>
+      <c r="F115" s="5">
+        <v>21</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H115" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A116" s="1">
+        <v>46019</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" s="5">
+        <v>14</v>
+      </c>
+      <c r="E116" s="5">
+        <v>14</v>
+      </c>
+      <c r="F116" s="5">
+        <v>14</v>
+      </c>
+      <c r="G116" s="5">
+        <v>14</v>
+      </c>
+      <c r="H116" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A117" s="1">
+        <v>46019</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D117" s="5">
+        <v>11</v>
+      </c>
+      <c r="E117" s="5">
+        <v>11</v>
+      </c>
+      <c r="F117" s="5">
+        <v>11</v>
+      </c>
+      <c r="G117" s="5">
+        <v>11</v>
+      </c>
+      <c r="H117" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A118" s="1">
+        <v>46019</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D118" s="5">
+        <v>48</v>
+      </c>
+      <c r="E118" s="5">
+        <v>48</v>
+      </c>
+      <c r="F118" s="5">
+        <v>67</v>
+      </c>
+      <c r="G118" s="5">
+        <v>48</v>
+      </c>
+      <c r="H118" s="5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A119" s="1">
+        <v>46019</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D119" s="5">
+        <v>13</v>
+      </c>
+      <c r="E119" s="5">
+        <v>13</v>
+      </c>
+      <c r="F119" s="5">
+        <v>67</v>
+      </c>
+      <c r="G119" s="5">
+        <v>12</v>
+      </c>
+      <c r="H119" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A120" s="1">
+        <v>46019</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" s="5">
+        <v>55</v>
+      </c>
+      <c r="E120" s="5">
+        <v>55</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G120" s="5">
+        <v>52</v>
+      </c>
+      <c r="H120" s="5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A121" s="1">
+        <v>46019</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D121" s="5">
+        <v>21</v>
+      </c>
+      <c r="E121" s="5">
+        <v>21</v>
+      </c>
+      <c r="F121" s="5">
+        <v>22</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H121" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A122" s="1">
+        <v>46019</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" s="5">
+        <v>14</v>
+      </c>
+      <c r="E122" s="5">
+        <v>14</v>
+      </c>
+      <c r="F122" s="5">
+        <v>16</v>
+      </c>
+      <c r="G122" s="5">
+        <v>14</v>
+      </c>
+      <c r="H122" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A123" s="1">
+        <v>46019</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123" s="5">
+        <v>11</v>
+      </c>
+      <c r="E123" s="5">
+        <v>11</v>
+      </c>
+      <c r="F123" s="5">
+        <v>11</v>
+      </c>
+      <c r="G123" s="5">
+        <v>11</v>
+      </c>
+      <c r="H123" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A124" s="1">
+        <v>46019</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D124" s="5">
+        <v>50</v>
+      </c>
+      <c r="E124" s="5">
+        <v>50</v>
+      </c>
+      <c r="F124" s="5">
+        <v>65</v>
+      </c>
+      <c r="G124" s="5">
+        <v>47</v>
+      </c>
+      <c r="H124" s="5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A125" s="1">
+        <v>46019</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D125" s="5">
+        <v>13</v>
+      </c>
+      <c r="E125" s="5">
+        <v>13</v>
+      </c>
+      <c r="F125" s="5">
+        <v>65</v>
+      </c>
+      <c r="G125" s="5">
+        <v>12</v>
+      </c>
+      <c r="H125" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A126" s="1">
+        <v>46019</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" s="5">
+        <v>55</v>
+      </c>
+      <c r="E126" s="5">
+        <v>55</v>
+      </c>
+      <c r="F126" s="5">
+        <v>52</v>
+      </c>
+      <c r="G126" s="5">
+        <v>53</v>
+      </c>
+      <c r="H126" s="5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A127" s="1">
+        <v>46019</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D127" s="5">
+        <v>20</v>
+      </c>
+      <c r="E127" s="5">
+        <v>20</v>
+      </c>
+      <c r="F127" s="5">
+        <v>21</v>
+      </c>
+      <c r="G127" s="5">
+        <v>21</v>
+      </c>
+      <c r="H127" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A128" s="1">
+        <v>46018</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" s="5">
+        <v>14</v>
+      </c>
+      <c r="E128" s="5">
+        <v>14</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H128" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A129" s="1">
+        <v>46018</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129" s="5">
+        <v>11</v>
+      </c>
+      <c r="E129" s="5">
+        <v>11</v>
+      </c>
+      <c r="F129" s="5">
+        <v>11</v>
+      </c>
+      <c r="G129" s="5">
+        <v>11</v>
+      </c>
+      <c r="H129" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A130" s="1">
+        <v>46018</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D130" s="5">
+        <v>50</v>
+      </c>
+      <c r="E130" s="5">
+        <v>50</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G130" s="5">
+        <v>48</v>
+      </c>
+      <c r="H130" s="5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A131" s="1">
+        <v>46018</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D131" s="5">
+        <v>13</v>
+      </c>
+      <c r="E131" s="5">
+        <v>13</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G131" s="5">
+        <v>12</v>
+      </c>
+      <c r="H131" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A132" s="1">
+        <v>46018</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" s="5">
+        <v>55</v>
+      </c>
+      <c r="E132" s="5">
+        <v>55</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G132" s="5">
+        <v>56</v>
+      </c>
+      <c r="H132" s="5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A133" s="1">
+        <v>46018</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D133" s="5">
+        <v>21</v>
+      </c>
+      <c r="E133" s="5">
+        <v>18</v>
+      </c>
+      <c r="F133" s="5">
+        <v>5</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H133" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A134" s="1">
+        <v>46018</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D134" s="5">
+        <v>14</v>
+      </c>
+      <c r="E134" s="5">
+        <v>14</v>
+      </c>
+      <c r="F134" s="5">
+        <v>14</v>
+      </c>
+      <c r="G134" s="5">
+        <v>14</v>
+      </c>
+      <c r="H134" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A135" s="1">
+        <v>46018</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D135" s="5">
+        <v>11</v>
+      </c>
+      <c r="E135" s="5">
+        <v>11</v>
+      </c>
+      <c r="F135" s="5">
+        <v>11</v>
+      </c>
+      <c r="G135" s="5">
+        <v>10</v>
+      </c>
+      <c r="H135" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A136" s="1">
+        <v>46018</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D136" s="5">
+        <v>48</v>
+      </c>
+      <c r="E136" s="5">
+        <v>48</v>
+      </c>
+      <c r="F136" s="5">
+        <v>57</v>
+      </c>
+      <c r="G136" s="5">
+        <v>47</v>
+      </c>
+      <c r="H136" s="5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A137" s="1">
+        <v>46018</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D137" s="5">
+        <v>11</v>
+      </c>
+      <c r="E137" s="5">
+        <v>11</v>
+      </c>
+      <c r="F137" s="5">
+        <v>57</v>
+      </c>
+      <c r="G137" s="5">
+        <v>11</v>
+      </c>
+      <c r="H137" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A138" s="1">
+        <v>46018</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D138" s="5">
+        <v>54</v>
+      </c>
+      <c r="E138" s="5">
+        <v>54</v>
+      </c>
+      <c r="F138" s="5">
+        <v>59</v>
+      </c>
+      <c r="G138" s="5">
+        <v>53</v>
+      </c>
+      <c r="H138" s="5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A139" s="1">
+        <v>46018</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D139" s="5">
+        <v>20</v>
+      </c>
+      <c r="E139" s="5">
+        <v>22</v>
+      </c>
+      <c r="F139" s="5">
+        <v>21</v>
+      </c>
+      <c r="G139" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H139" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A140" s="1">
+        <v>46017</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140" s="5">
+        <v>14</v>
+      </c>
+      <c r="E140" s="5">
+        <v>14</v>
+      </c>
+      <c r="F140" s="5">
+        <v>14</v>
+      </c>
+      <c r="G140" s="5">
+        <v>13</v>
+      </c>
+      <c r="H140" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A141" s="1">
+        <v>46017</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D141" s="5">
+        <v>11</v>
+      </c>
+      <c r="E141" s="5">
+        <v>11</v>
+      </c>
+      <c r="F141" s="5">
+        <v>11</v>
+      </c>
+      <c r="G141" s="5">
+        <v>11</v>
+      </c>
+      <c r="H141" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A142" s="1">
+        <v>46017</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D142" s="5">
+        <v>48</v>
+      </c>
+      <c r="E142" s="5">
+        <v>48</v>
+      </c>
+      <c r="F142" s="5">
+        <v>64</v>
+      </c>
+      <c r="G142" s="5">
+        <v>48</v>
+      </c>
+      <c r="H142" s="5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A143" s="1">
+        <v>46017</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D143" s="5">
+        <v>11</v>
+      </c>
+      <c r="E143" s="5">
+        <v>11</v>
+      </c>
+      <c r="F143" s="5">
+        <v>64</v>
+      </c>
+      <c r="G143" s="5">
+        <v>11</v>
+      </c>
+      <c r="H143" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A144" s="1">
+        <v>46017</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D144" s="5">
+        <v>54</v>
+      </c>
+      <c r="E144" s="5">
+        <v>54</v>
+      </c>
+      <c r="F144" s="5">
+        <v>55</v>
+      </c>
+      <c r="G144" s="5">
+        <v>54</v>
+      </c>
+      <c r="H144" s="5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A145" s="1">
+        <v>46017</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D145" s="5">
+        <v>24</v>
+      </c>
+      <c r="E145" s="5">
+        <v>24</v>
+      </c>
+      <c r="F145" s="5">
+        <v>20</v>
+      </c>
+      <c r="G145" s="5">
+        <v>20</v>
+      </c>
+      <c r="H145" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A146" s="1">
+        <v>46017</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D146" s="5">
+        <v>14</v>
+      </c>
+      <c r="E146" s="5">
+        <v>14</v>
+      </c>
+      <c r="F146" s="5">
+        <v>14</v>
+      </c>
+      <c r="G146" s="5">
+        <v>14</v>
+      </c>
+      <c r="H146" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A147" s="1">
+        <v>46017</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" s="5">
+        <v>11</v>
+      </c>
+      <c r="E147" s="5">
+        <v>11</v>
+      </c>
+      <c r="F147" s="5">
+        <v>11</v>
+      </c>
+      <c r="G147" s="5">
+        <v>11</v>
+      </c>
+      <c r="H147" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A148" s="1">
+        <v>46017</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D148" s="5">
+        <v>48</v>
+      </c>
+      <c r="E148" s="5">
+        <v>48</v>
+      </c>
+      <c r="F148" s="5">
+        <v>59</v>
+      </c>
+      <c r="G148" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H148" s="5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A149" s="1">
+        <v>46017</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D149" s="5">
+        <v>11</v>
+      </c>
+      <c r="E149" s="5">
+        <v>11</v>
+      </c>
+      <c r="F149" s="5">
+        <v>59</v>
+      </c>
+      <c r="G149" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H149" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A150" s="1">
+        <v>46017</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" s="5">
+        <v>54</v>
+      </c>
+      <c r="E150" s="5">
+        <v>54</v>
+      </c>
+      <c r="F150" s="5">
+        <v>53</v>
+      </c>
+      <c r="G150" s="5">
+        <v>53</v>
+      </c>
+      <c r="H150" s="5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A151" s="1">
+        <v>46017</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D151" s="5">
+        <v>20</v>
+      </c>
+      <c r="E151" s="5">
+        <v>20</v>
+      </c>
+      <c r="F151" s="5">
+        <v>21</v>
+      </c>
+      <c r="G151" s="5">
+        <v>20</v>
+      </c>
+      <c r="H151" s="5">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -3463,56 +4609,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003DB5FB9A56B6C74E843061FACE0FB799" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d477e5ad3d125c80f46e5e5ffe7045f1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="90d94301-7e12-4ce9-870c-87e055f2af11" xmlns:ns3="98ab9645-6273-4dd2-93a8-2006c9571166" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d879ce522f4edf0d556fc8a7c9151a58" ns2:_="" ns3:_="">
     <xsd:import namespace="90d94301-7e12-4ce9-870c-87e055f2af11"/>
@@ -3686,7 +4782,66 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_dlc_DocId xmlns="90d94301-7e12-4ce9-870c-87e055f2af11">NTQKWFHJQEXS-722922400-10145</_dlc_DocId>
@@ -3699,27 +4854,48 @@
 </p:properties>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BBBB0EE-F669-43D3-9813-B01371C98F11}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F3F88CB-47C6-49BE-9741-54365D30857E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="90d94301-7e12-4ce9-870c-87e055f2af11"/>
+    <ds:schemaRef ds:uri="98ab9645-6273-4dd2-93a8-2006c9571166"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F3F88CB-47C6-49BE-9741-54365D30857E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BBBB0EE-F669-43D3-9813-B01371C98F11}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47EB0B5D-A3EC-461C-B8CC-EFB106E4B8FB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE5B4C3D-E955-4CF0-BD88-5AFA6CD863B1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE5B4C3D-E955-4CF0-BD88-5AFA6CD863B1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47EB0B5D-A3EC-461C-B8CC-EFB106E4B8FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="90d94301-7e12-4ce9-870c-87e055f2af11"/>
+    <ds:schemaRef ds:uri="98ab9645-6273-4dd2-93a8-2006c9571166"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>